--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-04 23:43:15"</t>
+    <t xml:space="preserve">[1] "2020-05-05 10:44:11"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 11:28:50"</t>
+    <t xml:space="preserve">[1] "2020-05-05 12:55:54"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-05 12:55:54"</t>
+    <t xml:space="preserve">[1] "2020-05-05 13:14:45"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -17,22 +17,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">bestguess</t>
+    <t xml:space="preserve">upp</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">Posterior Distribution, niter = 0
-Very low number of iterations, DO NOT use for inference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestguess rejected</t>
+No credibility interval available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's Prior Projection rejected</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -77,7 +77,670 @@
     <t xml:space="preserve">1:                            TRUE         FALSE                  10</t>
   </si>
   <si>
-    <t xml:space="preserve">$best.guess.params</t>
+    <t xml:space="preserve">$devlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quartz_off_screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      internal.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                   weight.labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               parameter.weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                      r0.initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:                   latent.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:               prop.hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:                        prop.icu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:                       prop.vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:              intervention1.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        intervention1.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:       intervention1.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:              intervention2.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        intervention2.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:       intervention2.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:              intervention3.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        intervention3.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:       intervention3.smooth.days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:                   use.hosp.rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              external.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:                                                                  Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:                                              Date of first intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:                                             Date of second intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:                                              Date of third intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:                                                           Re multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5          7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Model Inputs`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        internal.name            external.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Date LowerBound UpperBound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$Internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               internal.name      value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:          search.max.iter         20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:          search.expander          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:              random.seed      12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:           output.filestr         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:          main.iterations          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:       required.in.bounds          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:            show.progress       TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$time.of.run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-07 00:56:58"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$extras$LEMMA.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"0.3.0.9004" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$hosp.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date    lower     upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.max.iter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.expander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.nonconverge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$random.seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$output.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Alameda-May4-v5 output"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-04-10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$main.iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$simulation.start.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-01-23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$required.in.bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$show.progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.long.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$plot.observed.data.short.term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$lower.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Confirmed COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$internal.args$upper.bound.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "Probable COVID19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$total.population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] 1671000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$start.display.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-03-15"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$model.inputs$end.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] "2020-05-01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$observed.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date     hosp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$upp.params</t>
   </si>
   <si>
     <t xml:space="preserve">1:          4             3                            5              0.04</t>
@@ -99,657 +762,6 @@
   </si>
   <si>
     <t xml:space="preserve">1:                            TRUE          TRUE                   9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$devlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quartz_off_screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Parameters with Distributions`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      internal.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                   weight.labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:               parameter.weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                      r0.initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:                   latent.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:    illness.length.given.nonhosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          infectious.to.hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:               prop.hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:             hosp.length.of.stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:                        prop.icu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:                       prop.vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:              intervention1.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        intervention1.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:       intervention1.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:              intervention2.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        intervention2.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:       intervention2.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:              intervention3.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        intervention3.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:       intervention3.smooth.days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: patients.in.hosp.are.infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:                   use.hosp.rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              external.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:                                                                    &lt;NA&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:                                                                  Priors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:                       Basic reproductive number R0 before Intervention1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:    Number of Days from Infection to Becoming Infectious (Latent Period)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:                                       Duration of infectiousness (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:             Time from onset of infectiousness to hospitalization (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:                               Percent of Infected that are Hospitalized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:                                  Average Hospital Length of Stay (Days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: Percent of Hospitalized COVID-19 Patients That are Currently in the ICU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:    Percent of COVID-19 Patients in the ICU who are Currently Ventilated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:                                              Date of first intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:                                             Date of second intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:                                              Date of third intervention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:                                                           Re multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:                                                    Days to reach new Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:                                     Patients in hospital are infectious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Model Inputs`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        internal.name            external.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:   total.population Number of People in Area    1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$`Hospitilization Data`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Date LowerBound UpperBound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01   51.88321   59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02   56.86563   65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03   61.68362   70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04   66.26620   76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05   70.60557   81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06   74.69862   85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07   78.82360   90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08   82.50392   94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09   85.20577   97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10   87.19809  100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11   88.66911  101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12   89.34864  102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13   88.25265  101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14   86.63990   99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15   85.23594   98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17   84.00665   96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18   83.83743   96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19   83.86506   96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20   83.89666   96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21   83.85270   96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22   83.14715   95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23   82.40143   94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24   82.17643   94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25   81.80076   94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26   81.04030   93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27   80.07035   92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28   78.38229   90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29   76.64307   88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30   75.31391   86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01   74.15291   85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02   73.32236   84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03   72.73400   83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$time.of.run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-05 13:14:45"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$extras$LEMMA.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     version </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"0.3.0.9003" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$hosp.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date    lower     upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 51.88321  59.66569</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 56.86563  65.39548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 61.68362  70.93617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 66.26620  76.20613</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 70.60557  81.19641</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 74.69862  85.90341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 78.82360  90.64714</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 82.50392  94.87951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 85.20577  97.98664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 87.19809 100.27781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-04-11 88.66911 101.96948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12: 2020-04-12 89.34864 102.75094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13: 2020-04-13 88.25265 101.49055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-04-14 86.63990  99.63588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15: 2020-04-15 85.23594  98.02133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16: 2020-04-17 84.00665  96.60765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-04-18 83.83743  96.41305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18: 2020-04-19 83.86506  96.44481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19: 2020-04-20 83.89666  96.48116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20: 2020-04-21 83.85270  96.43061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21: 2020-04-22 83.14715  95.61923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22: 2020-04-23 82.40143  94.76164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23: 2020-04-24 82.17643  94.50289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24: 2020-04-25 81.80076  94.07088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25: 2020-04-26 81.04030  93.19635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26: 2020-04-27 80.07035  92.08090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27: 2020-04-28 78.38229  90.13963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28: 2020-04-29 76.64307  88.13953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29: 2020-04-30 75.31391  86.61100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30: 2020-05-01 74.15291  85.27584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31: 2020-05-02 73.32236  84.32072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32: 2020-05-03 72.73400  83.64410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.max.iter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.expander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$search.num.init.exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.nonconverge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$random.seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$output.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "Alameda-May4-v5 output"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$add.timestamp.to.filestr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$min.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$max.obs.date.to.fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-04-10"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$main.iterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$simulation.start.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-01-23"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$lower.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$upper.bound.multiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$required.in.bounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$show.progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$plot.observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$internal.args$include.plot.caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$total.population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 1671000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$start.display.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-03-15"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$model.inputs$end.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$observed.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          date     hosp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: 2020-04-01 55.77445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2: 2020-04-02 61.13056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3: 2020-04-03 66.30990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4: 2020-04-04 71.23616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5: 2020-04-05 75.90099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6: 2020-04-06 80.30101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: 2020-04-07 84.73537</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8: 2020-04-08 88.69171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9: 2020-04-09 91.59621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10: 2020-04-10 93.73795</t>
   </si>
 </sst>
 </file>
@@ -3940,17 +3952,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3960,1092 +3972,1092 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
@@ -5055,12 +5067,12 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
@@ -5070,77 +5082,77 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257">
@@ -5155,7 +5167,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260">
@@ -5165,126 +5177,156 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>235</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">   hosp.length.of.stay  prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-06</t>
+    <t xml:space="preserve">1:                  12 0.3827197 0.8297564         2020-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention1.multiplier intervention1.smooth.days intervention2.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                0.6784383                         7         2020-03-16</t>
+    <t xml:space="preserve">1:                0.6784383                         7         2020-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">   intervention2.multiplier intervention2.smooth.days intervention3.date</t>
@@ -224,70 +224,70 @@
     <t xml:space="preserve">21:   Contant rate to hospital (if FALSE, fixed number of days to hospital)</t>
   </si>
   <si>
-    <t xml:space="preserve">           low     midlow        mid    midhigh       high</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:         NA         NA Best Guess         NA         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:       0.05       0.15        0.6       0.15       0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:        2.5          3          4          4        4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          0          2          3          4          5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:          3          4          5          6          7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:          4          5          6          7          8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7:       0.01       0.02       0.04       0.05       0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:          6          8         10         12         14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:        0.4       0.42       0.45       0.52       0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:        0.8       0.82       0.85       0.87        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11: 2020-03-06 2020-03-06 2020-03-06 2020-03-06 2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:        0.4        0.5        0.6        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14: 2020-03-16 2020-03-16 2020-03-16 2020-03-16 2020-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:        0.3        0.4       0.45        0.8          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17: 2020-06-01 2020-06-01 2020-06-01 2020-06-01 2020-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:        1.1        1.2        1.5        1.7          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:          3          5          7          9         11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:      FALSE      FALSE       TRUE      FALSE      FALSE</t>
+    <t xml:space="preserve">           low     midlow                 mid    midhigh       high</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:         NA         NA User's "Best Guess"         NA         NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:       0.05       0.15                 0.6       0.15       0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:        2.5          3                   4          4        4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:          0          2                   3          4          5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:          3          4                   5          6          7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:          4          5                   6          7          8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:       0.01       0.02                0.04       0.05       0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:          6          8                  10         12         14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:        0.4       0.42                0.45       0.52       0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:        0.8       0.82                0.85       0.87        0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11: 2020-03-07 2020-03-07          2020-03-07 2020-03-07 2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        0.4        0.5                 0.6        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14: 2020-03-17 2020-03-17          2020-03-17 2020-03-17 2020-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:        0.3        0.4                0.45        0.8          1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: 2020-06-01 2020-06-01          2020-06-01 2020-06-01 2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:        1.1        1.2                 1.5        1.7          2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:          3          5                   7          9         11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:      FALSE      FALSE                TRUE      FALSE      FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Model Inputs`</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">2: start.display.date    Projection Start Date 2020-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">3:           end.date      Projection End Date 2020-05-01</t>
+    <t xml:space="preserve">3:           end.date      Projection End Date 2020-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$`Hospitilization Data`</t>
@@ -410,58 +410,70 @@
     <t xml:space="preserve">$extras$Internal</t>
   </si>
   <si>
-    <t xml:space="preserve">               internal.name      value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:          search.max.iter         20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2:          search.expander          2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3:      search.num.init.exp          9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4:          max.nonconverge       0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5:              random.seed      12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6:           output.filestr         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7: add.timestamp.to.filestr      FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8:      min.obs.date.to.fit         NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9:      max.obs.date.to.fit 2020-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:          main.iterations          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:    simulation.start.date 2020-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:   lower.bound.multiplier        0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:   upper.bound.multiplier        1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:       required.in.bounds          1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:            show.progress       TRUE</t>
+    <t xml:space="preserve">                    internal.name             value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:               search.max.iter                20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2:               search.expander                 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:           search.num.init.exp                 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4:               max.nonconverge              0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5:                   random.seed             12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:                output.filestr                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7:      add.timestamp.to.filestr             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8:           min.obs.date.to.fit                NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:           max.obs.date.to.fit        2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:               main.iterations                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:         simulation.start.date        2020-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:        lower.bound.multiplier               0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:        upper.bound.multiplier               1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:            required.in.bounds                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:                 show.progress              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:  plot.observed.data.long.term             FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17: plot.observed.data.short.term              TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:             lower.bound.label Confirmed COVID19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:             upper.bound.label  Probable COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 00:56:58"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:12:36"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -701,7 +713,7 @@
     <t xml:space="preserve">$model.inputs$end.date</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-01"</t>
+    <t xml:space="preserve">[1] "2020-07-01"</t>
   </si>
   <si>
     <t xml:space="preserve">$observed.data</t>
@@ -749,10 +761,10 @@
     <t xml:space="preserve">   hosp.length.of.stay prop.icu prop.vent intervention1.date</t>
   </si>
   <si>
-    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:                      0.6                         7         2020-03-16</t>
+    <t xml:space="preserve">1:                  10     0.45      0.85         2020-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:                      0.6                         7         2020-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">1:                     0.45                         7         2020-06-01</t>
@@ -1126,7 +1138,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.3752173949905</v>
+        <v>10.7210030329523</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1137,7 +1149,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>14.6059540305612</v>
+        <v>12.7626418390554</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1148,7 +1160,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>17.1236129244428</v>
+        <v>15.0631840180954</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1159,7 +1171,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>19.9715471313659</v>
+        <v>17.6596144122932</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1170,7 +1182,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>23.1358927661125</v>
+        <v>20.5966370000137</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1181,7 +1193,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>26.5738274699912</v>
+        <v>23.8599483625718</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1192,7 +1204,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>30.2234941570041</v>
+        <v>27.4053804942319</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1203,7 +1215,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>34.0093271137101</v>
+        <v>31.1691356001671</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1214,7 +1226,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>37.8464749466767</v>
+        <v>35.0732794451079</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1225,7 +1237,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>41.6452087847813</v>
+        <v>39.0303032295886</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1236,7 +1248,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45.3153603860456</v>
+        <v>42.9476701277587</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1247,7 +1259,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>48.8246833914011</v>
+        <v>46.7323924831183</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1258,7 +1270,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>52.1673570671031</v>
+        <v>50.3512137006267</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1269,7 +1281,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>55.3494027723511</v>
+        <v>53.7981284785831</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1280,7 +1292,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>58.3819041531498</v>
+        <v>57.079343703854</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1291,7 +1303,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>61.2778397782649</v>
+        <v>60.2062867594842</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1302,7 +1314,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>64.0505969230358</v>
+        <v>63.192339124469</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1313,7 +1325,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>66.7132743709675</v>
+        <v>66.0513036617065</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1324,7 +1336,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>69.2783603757295</v>
+        <v>68.796685593874</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1335,7 +1347,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>71.7575924169618</v>
+        <v>71.4413603753562</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1346,7 +1358,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>74.1619073281513</v>
+        <v>73.997429047434</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1357,7 +1369,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>76.5014377468621</v>
+        <v>76.4761667950293</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1368,7 +1380,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>78.7855330405635</v>
+        <v>78.8880192765929</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1379,7 +1391,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>81.0227934186985</v>
+        <v>81.2426241962898</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1390,7 +1402,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>83.221111080224</v>
+        <v>83.5488464754855</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1401,7 +1413,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>85.3877148383827</v>
+        <v>85.8148206800381</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1412,7 +1424,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>87.5292160409331</v>
+        <v>88.0479970336579</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1423,7 +1435,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>89.6516543839924</v>
+        <v>90.2551887671895</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1434,7 +1446,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>91.7605426927129</v>
+        <v>92.4426193580523</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1445,7 +1457,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>93.860910052009</v>
+        <v>94.6159687040223</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1456,7 +1468,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>95.9573428844734</v>
+        <v>96.7804175952513</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1467,7 +1479,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>98.0540237260892</v>
+        <v>98.9406900690427</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1478,7 +1490,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>100.154767562908</v>
+        <v>101.101093390175</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1489,7 +1501,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>102.263055675135</v>
+        <v>103.265555515655</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1500,7 +1512,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>104.382066996518</v>
+        <v>105.437659988657</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1511,7 +1523,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>106.514707041699</v>
+        <v>107.620678269784</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1522,7 +1534,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>108.663634486148</v>
+        <v>109.817599559971</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1533,7 +1545,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>110.831285505155</v>
+        <v>112.031158202252</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1544,7 +1556,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>113.0198959926</v>
+        <v>114.263858772256</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1555,7 +1567,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>115.231521788358</v>
+        <v>116.517998981857</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1566,7 +1578,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>117.468057046899</v>
+        <v>118.795690528929</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1577,7 +1589,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>119.731250879785</v>
+        <v>121.098878029861</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1588,7 +1600,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>122.022722402456</v>
+        <v>123.42935617172</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1599,7 +1611,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>124.34397431149</v>
+        <v>125.788785218512</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1610,7 +1622,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>126.696405113057</v>
+        <v>128.178705001685</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1621,7 +1633,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>129.081320116941</v>
+        <v>130.600547519368</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1632,7 +1644,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>131.499941303709</v>
+        <v>133.055648262299</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1643,9 +1655,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>133.953416165478</v>
+        <v>135.54525637739</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>138.070543772531</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>140.632613258902</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>143.232505819817</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>145.871207088033</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>148.549653106742</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>151.268735443014</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>154.029305716423</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>156.832179599908</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>159.678140344689</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>162.567941876133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>165.502311503022</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>168.481952278512</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>171.507545047292</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>174.579750210037</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>177.699209233063</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>180.866545928283</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>184.082367525933</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>187.347265560254</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>190.661816586144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>194.026582742949</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>197.442112179806</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>200.908939355434</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>204.427585223886</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>207.998557316535</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>211.62234972946</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>215.299443024414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>219.030304050661</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>222.81538569421</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>226.655126560238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>230.549950593914</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>234.500266644246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>238.506467975131</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>242.568931727309</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>246.792960734393</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>251.335505121883</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>256.382297258288</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>262.140281553431</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>268.838007231944</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>276.730606037084</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>286.107995362665</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>297.106039981919</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>309.801818212352</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>324.252540334045</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>340.51160936254</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>358.635369719617</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>378.686031125646</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>400.732996532373</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>424.853503373259</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>451.132951581862</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>479.665073033172</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>510.552006689872</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>543.904305510823</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>579.840884224863</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>618.488908866913</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>659.983624421692</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>704.468113941239</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>752.092980239567</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>803.015939368314</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>857.401313398935</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>915.419408530483</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>977.245763202698</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1679,7 +2362,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5.56884782774574</v>
+        <v>4.82445136482855</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1690,7 +2373,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>6.57267931375255</v>
+        <v>5.74318882757495</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1701,7 +2384,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>7.70562581599926</v>
+        <v>6.77843280814294</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1712,7 +2395,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8.98719620911466</v>
+        <v>7.94682648553195</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1723,7 +2406,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.4111517447506</v>
+        <v>9.26848665000617</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1734,7 +2417,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>11.958222361496</v>
+        <v>10.7369767631573</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1745,7 +2428,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>13.6005723706518</v>
+        <v>12.3324212224044</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1756,7 +2439,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>15.3041972011695</v>
+        <v>14.0261110200752</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1767,7 +2450,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>17.0309137260045</v>
+        <v>15.7829757502986</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1778,7 +2461,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>18.7403439531516</v>
+        <v>17.5636364533149</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1789,7 +2472,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>20.3919121737205</v>
+        <v>19.3264515574914</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1800,7 +2483,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>21.9711075261305</v>
+        <v>21.0295766174032</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1811,7 +2494,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>23.4753106801964</v>
+        <v>22.658046165282</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1822,7 +2505,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>24.907231247558</v>
+        <v>24.2091578153624</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1833,7 +2516,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>26.2718568689174</v>
+        <v>25.6857046667343</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1844,7 +2527,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>27.5750279002192</v>
+        <v>27.0928290417679</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1855,7 +2538,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>28.8227686153661</v>
+        <v>28.4365526060111</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1866,7 +2549,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>30.0209734669354</v>
+        <v>29.7230866477679</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1877,7 +2560,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>31.1752621690783</v>
+        <v>30.9585085172433</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1888,7 +2571,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>32.2909165876328</v>
+        <v>32.1486121689103</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1899,7 +2582,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>33.3728582976681</v>
+        <v>33.2988430713453</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1910,7 +2593,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>34.425646986088</v>
+        <v>34.4142750577632</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1921,7 +2604,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>35.4534898682536</v>
+        <v>35.4996086744668</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1932,7 +2615,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>36.4602570384143</v>
+        <v>36.5591808883304</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1943,7 +2626,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>37.4494999861008</v>
+        <v>37.5969809139685</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1954,7 +2637,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>38.4244716772722</v>
+        <v>38.6166693060172</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1965,7 +2648,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>39.3881472184199</v>
+        <v>39.621598665146</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1976,7 +2659,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>40.3432444727966</v>
+        <v>40.6148349452353</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1987,7 +2670,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>41.2922442117208</v>
+        <v>41.5991787111235</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1998,7 +2681,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>42.2374095234041</v>
+        <v>42.57718591681</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2009,7 +2692,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>43.180804298013</v>
+        <v>43.5511879178631</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2020,7 +2703,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>44.1243106767401</v>
+        <v>44.5233105310692</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2031,7 +2714,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>45.0696454033085</v>
+        <v>45.4954920255789</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2042,7 +2725,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>46.0183750538109</v>
+        <v>46.4694999820449</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2053,7 +2736,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>46.9719301484329</v>
+        <v>47.4469469948957</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2064,7 +2747,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>47.9316181687646</v>
+        <v>48.4293052214029</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2075,7 +2758,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>48.8986355187665</v>
+        <v>49.4179198019868</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2086,7 +2769,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>49.87407847732</v>
+        <v>50.4140211910136</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2097,7 +2780,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>50.8589531966699</v>
+        <v>51.4187364475154</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2108,7 +2791,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>51.854184804761</v>
+        <v>52.4330995418357</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2119,7 +2802,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>52.8606256711046</v>
+        <v>53.458060738018</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2130,7 +2813,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>53.8790628959034</v>
+        <v>54.4944951134377</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2141,7 +2824,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>54.9102250811051</v>
+        <v>55.5432102772742</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2152,7 +2835,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>55.9547884401705</v>
+        <v>56.6049533483303</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2163,7 +2846,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>57.0133823008755</v>
+        <v>57.6804172507583</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2174,7 +2857,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>58.0865940526237</v>
+        <v>58.7702463837154</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2185,7 +2868,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>59.1749735866692</v>
+        <v>59.8750417180345</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2196,9 +2879,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>60.2790372744652</v>
+        <v>60.9953653698257</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>62.1317446976388</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>63.2846759665059</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>64.4546276189178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>65.642043189615</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>66.8473438980339</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>68.0709309493565</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>69.3131875723903</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>70.5744808199588</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>71.8551631551101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>73.1555738442597</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>74.4760401763601</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>75.8168785253305</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>77.1783952712815</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>78.5608875945165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>79.9646441548784</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>81.3899456677272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>82.8370653866699</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>84.3062695021142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>85.7978174637647</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>87.3119622343271</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>88.8489504809129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>90.4090227099454</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>91.9924133507486</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>93.5993507924406</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>95.2300573782571</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>96.8847493609863</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>98.5636368227976</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>100.266923562394</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>101.994806952107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>103.747477767261</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>105.525119989911</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>107.327910588809</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>109.156019277289</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>111.056832330477</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>113.100977304847</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>115.372033766229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>117.963126699044</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>120.977103254375</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>124.528772716688</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>128.748597913199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>133.697717991864</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>139.410818195558</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>145.91364315032</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>153.230224213143</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>161.385916373828</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>170.408714006541</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>180.329848439568</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>191.184076517966</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>203.009828211838</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>215.849282864927</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>229.748403010442</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>244.75693747987</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>260.928397901189</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>278.320008990111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>296.992630989762</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>317.010651273558</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>338.441841107805</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>361.357172715741</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>385.830591029521</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>411.938733838717</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>439.760593441214</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2232,7 +3586,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.73352065358388</v>
+        <v>4.10078366010427</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2243,7 +3597,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.58677741668966</v>
+        <v>4.8817105034387</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2254,7 +3608,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.54978194359937</v>
+        <v>5.7616678869215</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2265,7 +3619,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.63911677774746</v>
+        <v>6.75480251270216</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2276,7 +3630,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.84947898303803</v>
+        <v>7.87821365250525</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2287,7 +3641,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.1644890072716</v>
+        <v>9.12643024868371</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2298,7 +3652,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.5604865150541</v>
+        <v>10.4825580390437</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2309,7 +3663,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.0085676209941</v>
+        <v>11.9221943670639</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2320,7 +3674,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.4762766671038</v>
+        <v>13.4155293877538</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2331,7 +3685,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>15.9292923601788</v>
+        <v>14.9290909853177</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2342,7 +3696,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>17.3331253476624</v>
+        <v>16.4274838238677</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2353,7 +3707,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>18.6754413972109</v>
+        <v>17.8751401247927</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2364,7 +3718,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>19.9540140781669</v>
+        <v>19.2593392404897</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2375,7 +3729,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>21.1711465604243</v>
+        <v>20.577784143058</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2386,7 +3740,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>22.3310783385798</v>
+        <v>21.8328489667241</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2397,7 +3751,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>23.4387737151863</v>
+        <v>23.0289046855027</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2408,7 +3762,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>24.4993533230612</v>
+        <v>24.1710697151094</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2419,7 +3773,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>25.5178274468951</v>
+        <v>25.2646236506027</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2430,7 +3784,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>26.4989728437165</v>
+        <v>26.3147322396568</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2441,7 +3795,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>27.4472790994879</v>
+        <v>27.3263203435738</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2452,7 +3806,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>28.3669295530179</v>
+        <v>28.3040166106435</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2463,7 +3817,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>29.2617999381748</v>
+        <v>29.2521337990987</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2474,7 +3828,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>30.1354663880155</v>
+        <v>30.1746673732968</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2485,7 +3839,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>30.9912184826522</v>
+        <v>31.0753037550809</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2496,7 +3850,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>31.8320749881857</v>
+        <v>31.9574337768732</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2507,7 +3861,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>32.6608009256814</v>
+        <v>32.8241689101146</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2518,7 +3872,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>33.4799251356569</v>
+        <v>33.6783588653741</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2529,7 +3883,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>34.2917578018771</v>
+        <v>34.52260970345</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2540,7 +3894,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>35.0984075799627</v>
+        <v>35.359301904455</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2551,7 +3905,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>35.9017980948935</v>
+        <v>36.1906080292885</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2562,7 +3916,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>36.7036836533111</v>
+        <v>37.0185097301836</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2573,7 +3927,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>37.5056640752291</v>
+        <v>37.8448139514088</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2584,7 +3938,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>38.3091985928122</v>
+        <v>38.6711682217421</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2595,7 +3949,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>39.1156187957393</v>
+        <v>39.4990749847382</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2606,7 +3960,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>39.926140626168</v>
+        <v>40.3299049456613</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2617,7 +3971,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>40.7418754434499</v>
+        <v>41.1649094381925</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2628,7 +3982,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>41.5638401909516</v>
+        <v>42.0052318316887</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2639,7 +3993,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>42.392966705722</v>
+        <v>42.8519180123616</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2650,7 +4004,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>43.2301102171694</v>
+        <v>43.7059259803881</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2661,7 +4015,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>44.0760570840469</v>
+        <v>44.5681346105603</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2672,7 +4026,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>44.9315318204389</v>
+        <v>45.4393516273153</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2683,7 +4037,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>45.7972034615179</v>
+        <v>46.320320846422</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2694,7 +4048,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>46.6736913189393</v>
+        <v>47.2117287356831</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2705,7 +4059,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>47.5615701741449</v>
+        <v>48.1142103460807</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2716,7 +4070,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>48.4613749557442</v>
+        <v>49.0283546631445</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2727,7 +4081,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>49.3736049447301</v>
+        <v>49.9547094261581</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2738,7 +4092,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>50.2987275486688</v>
+        <v>50.8937854603293</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2749,9 +4103,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>51.2371816832955</v>
+        <v>51.8460605643518</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>52.811982992993</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>53.79197457153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>54.7864334760801</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>55.7957367111728</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>56.8202423133288</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>57.860291306953</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>58.9162094365318</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>59.988308696965</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>61.0768886818436</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>62.1822377676207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>63.3046341499061</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>64.4443467465309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>65.6016359805893</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>66.776754455339</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>67.9699475316467</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>69.1814538175681</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>70.4115055786694</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>71.660329076797</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>72.9281448442</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>74.2151678991781</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>75.5216079087759</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>76.8476693034536</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>78.1935513481363</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>79.5594481735745</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>80.9455487715185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>82.3520369568384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>83.779091299378</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>85.2268850280353</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>86.6955859092911</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>88.1853561021719</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>89.6963519914241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>91.2287240004875</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>92.7826163856956</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>94.3983074809054</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>96.1358307091203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>98.066228701295</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>100.268657694187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>102.830537766218</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>105.849456809185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>109.436308226219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>113.643060293084</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>118.499195466225</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>124.026596677772</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>130.245690581172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>137.178028917754</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>144.84740690556</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>153.280371173633</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>162.506465040271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>172.558353980062</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>183.471890435188</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>195.286142558876</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>208.04339685789</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>221.78913821601</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>236.572007641594</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>252.443736341297</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>269.459053582524</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>287.675564941634</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>307.15359680838</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>327.956002375093</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>350.14792376291</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>373.796504425032</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2785,7 +4810,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>977.284046888852</v>
+        <v>880.431806927993</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2796,7 +4821,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>1119.02609594465</v>
+        <v>1007.86361280184</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2807,7 +4832,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1252.55216869669</v>
+        <v>1154.0352029395</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2818,7 +4843,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1375.98625094716</v>
+        <v>1291.73193982602</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2829,7 +4854,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1485.77323348664</v>
+        <v>1419.01902316851</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2840,7 +4865,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>1578.40885011413</v>
+        <v>1532.23023193742</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2851,7 +4876,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>1651.03613020539</v>
+        <v>1627.75194847948</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2862,7 +4887,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1701.69746890803</v>
+        <v>1702.63824695316</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2873,7 +4898,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>1729.43323596243</v>
+        <v>1754.87081392407</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2884,7 +4909,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1758.62619623177</v>
+        <v>1783.46059503256</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2895,7 +4920,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>1788.9461347568</v>
+        <v>1813.55142597182</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2906,7 +4931,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>1820.23136408847</v>
+        <v>1844.80282855945</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2917,7 +4942,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>1852.39920274467</v>
+        <v>1877.04804249036</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2928,7 +4953,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>1885.40473093325</v>
+        <v>1910.20174356976</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2939,7 +4964,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>1919.22171668661</v>
+        <v>1944.21752838987</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2950,7 +4975,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1953.8337284748</v>
+        <v>1979.06825295823</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2961,7 +4986,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>1989.22993435816</v>
+        <v>2014.7368716418</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2972,7 +4997,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>2025.40306326322</v>
+        <v>2051.2121069238</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2983,7 +5008,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>2062.34836920072</v>
+        <v>2088.48634778967</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2994,7 +5019,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>2100.06306563217</v>
+        <v>2126.55458188094</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3005,7 +5030,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>2138.54598461762</v>
+        <v>2165.41381223793</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3016,7 +5041,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>2177.79734730515</v>
+        <v>2205.0627057236</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3027,7 +5052,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>2217.81859291465</v>
+        <v>2245.50135620597</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3038,7 +5063,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>2258.61224123315</v>
+        <v>2286.73110802973</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3049,7 +5074,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>2300.18177648559</v>
+        <v>2328.75441402773</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3060,7 +5085,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>2342.53154639886</v>
+        <v>2371.57471556402</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3071,7 +5096,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>2385.66667306429</v>
+        <v>2415.19633823608</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3082,7 +5107,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>2429.59297353406</v>
+        <v>2459.62439973709</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3093,7 +5118,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>2474.31688874559</v>
+        <v>2504.86472774982</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3104,7 +5129,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>2519.84541971355</v>
+        <v>2550.92378642265</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3115,7 +5140,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>2566.18607012811</v>
+        <v>2597.80861033438</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3126,7 +5151,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2613.34679462622</v>
+        <v>2645.52674505968</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3137,7 +5162,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>2661.33595209457</v>
+        <v>2694.08619357899</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3148,7 +5173,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>2710.16226343584</v>
+        <v>2743.49536787163</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3159,7 +5184,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>2759.83477329055</v>
+        <v>2793.76304510586</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3170,7 +5195,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>2810.36281525986</v>
+        <v>2844.89832790252</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3181,7 +5206,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>2861.75598022147</v>
+        <v>2896.91060820332</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3192,7 +5217,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>2914.02408737253</v>
+        <v>2949.80953432324</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3203,7 +5228,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>2967.1771576712</v>
+        <v>3003.60498080966</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3214,7 +5239,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>3021.22538938194</v>
+        <v>3058.30702076951</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3225,7 +5250,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>3076.17913546035</v>
+        <v>3113.92590036061</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3236,7 +5261,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>3132.04888254014</v>
+        <v>3170.47201517455</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3247,7 +5272,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>3188.84523130982</v>
+        <v>3227.95588826678</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3258,7 +5283,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>3246.57887808816</v>
+        <v>3286.38814961459</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3269,7 +5294,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>3305.26059742771</v>
+        <v>3345.77951680662</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3280,7 +5305,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>3364.90122559272</v>
+        <v>3406.1407767876</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3291,7 +5316,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>3425.51164477428</v>
+        <v>3467.48276850042</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3302,9 +5327,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="5" t="n">
-        <v>3487.10276791915</v>
+        <v>3529.81636628409</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>3593.15246390046</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>3657.50195907601</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>3722.87573845657</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>3789.28466288349</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>3856.73955290898</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>3925.25117447704</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>3994.83022470375</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>4065.48731769755</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>4137.23297036633</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>4210.0775881634</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>4284.03145072948</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>4359.10469739233</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>4435.30731248965</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>4512.64911048426</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>4591.13972084435</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>4670.78857266422</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>4751.60487900387</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>4833.59762092835</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>4916.77553123003</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>5001.14707781941</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>5086.7204467717</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>5173.50352501886</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>5261.50388267823</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>5350.72875501075</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>5441.1850240036</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>5532.87919957353</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>5625.81740038871</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>5720.00533430885</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>5815.44827844436</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>5912.1510588372</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>6010.11802976758</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>6156.57713259958</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>6355.89116395892</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>6613.68583464644</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>6937.31211301709</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>7336.2636385743</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>7822.66584602564</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="5" t="n">
+        <v>8411.90647460527</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="5" t="n">
+        <v>9033.47723865035</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>9694.44230096638</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="5" t="n">
+        <v>10399.416151084</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="5" t="n">
+        <v>11152.1146447913</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="5" t="n">
+        <v>11955.9827631857</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="5" t="n">
+        <v>12814.4495015858</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="5" t="n">
+        <v>13731.0316766463</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="5" t="n">
+        <v>14709.3759710611</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="5" t="n">
+        <v>15753.2750996665</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="5" t="n">
+        <v>16866.672408556</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="5" t="n">
+        <v>18053.660496427</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="5" t="n">
+        <v>19318.4759077551</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>20665.4904983542</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>22099.1994684237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="5" t="n">
+        <v>23624.2057937127</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>25245.2006598759</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>26966.9394377742</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>28794.2126969477</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>30731.8117293848</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>32784.4880430268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>34956.9062847988</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>37253.590068695</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>39678.8602188624</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3338,7 +6034,7 @@
         <v>43905</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1456.29919300134</v>
+        <v>1291.54950214485</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -3349,7 +6045,7 @@
         <v>43906</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>1690.17511105116</v>
+        <v>1501.8769427095</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3360,7 +6056,7 @@
         <v>43907</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>1929.21437976001</v>
+        <v>1743.06590916835</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3371,7 +6067,7 @@
         <v>43908</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>2173.46131100121</v>
+        <v>1989.57766678081</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3382,7 +6078,7 @@
         <v>43909</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>2419.72995644666</v>
+        <v>2241.45764235343</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3393,7 +6089,7 @@
         <v>43910</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>2664.03465119395</v>
+        <v>2495.42012456036</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3404,7 +6100,7 @@
         <v>43911</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>2902.41015327455</v>
+        <v>2747.35481890369</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3415,7 +6111,7 @@
         <v>43912</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>3131.27297869577</v>
+        <v>2993.17263744311</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3426,7 +6122,7 @@
         <v>43913</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>3347.61333104302</v>
+        <v>3229.17832112128</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3437,7 +6133,7 @@
         <v>43914</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>3573.44131019195</v>
+        <v>3452.26834476803</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3448,7 +6144,7 @@
         <v>43915</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>3805.84348213344</v>
+        <v>3685.13953617798</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3459,7 +6155,7 @@
         <v>43916</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>4043.53901848633</v>
+        <v>3924.78733039176</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3470,7 +6166,7 @@
         <v>43917</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>4285.99581524018</v>
+        <v>4169.89067984207</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3481,7 +6177,7 @@
         <v>43918</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>4533.02476725047</v>
+        <v>4419.90060919166</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3492,7 +6188,7 @@
         <v>43919</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>4784.59360963743</v>
+        <v>4674.6218333334</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3503,7 +6199,7 @@
         <v>43920</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>5040.7415750976</v>
+        <v>4934.0207895653</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3514,7 +6210,7 @@
         <v>43921</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>5301.54033492461</v>
+        <v>5198.13763051385</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3525,7 +6221,7 @@
         <v>43922</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>5567.07618219107</v>
+        <v>5467.04594494804</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3536,7 +6232,7 @@
         <v>43923</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>5837.44195826083</v>
+        <v>5740.83438377158</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3547,7 +6243,7 @@
         <v>43924</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>6112.73344295095</v>
+        <v>6019.59833355237</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3558,7 +6254,7 @@
         <v>43925</v>
       </c>
       <c r="B22" s="6" t="n">
-        <v>6393.04778466678</v>
+        <v>6303.43619310699</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3569,7 +6265,7 @@
         <v>43926</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>6678.48285837275</v>
+        <v>6592.44775378213</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3580,7 +6276,7 @@
         <v>43927</v>
       </c>
       <c r="B24" s="6" t="n">
-        <v>6969.13704151837</v>
+        <v>6886.73353655435</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3591,7 +6287,7 @@
         <v>43928</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>7265.10917455589</v>
+        <v>7186.39456013232</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3602,7 +6298,7 @@
         <v>43929</v>
       </c>
       <c r="B26" s="6" t="n">
-        <v>7566.49859960736</v>
+        <v>7491.53229940079</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3613,7 +6309,7 @@
         <v>43930</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>7873.40522905892</v>
+        <v>7802.24872443402</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3624,7 +6320,7 @@
         <v>43931</v>
       </c>
       <c r="B28" s="6" t="n">
-        <v>8185.92962253203</v>
+        <v>8118.64637034594</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3635,7 +6331,7 @@
         <v>43932</v>
       </c>
       <c r="B29" s="6" t="n">
-        <v>8504.17306286964</v>
+        <v>8440.82841575147</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3646,7 +6342,7 @@
         <v>43933</v>
       </c>
       <c r="B30" s="6" t="n">
-        <v>8828.23762731597</v>
+        <v>8768.89876018266</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3657,7 +6353,7 @@
         <v>43934</v>
       </c>
       <c r="B31" s="6" t="n">
-        <v>9158.22625256217</v>
+        <v>9102.96209651785</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3668,7 +6364,7 @@
         <v>43935</v>
       </c>
       <c r="B32" s="6" t="n">
-        <v>9494.24279342826</v>
+        <v>9443.12397705361</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3679,7 +6375,7 @@
         <v>43936</v>
       </c>
       <c r="B33" s="6" t="n">
-        <v>9836.39207541372</v>
+        <v>9789.49087298169</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3690,7 +6386,7 @@
         <v>43937</v>
       </c>
       <c r="B34" s="6" t="n">
-        <v>10184.7799415238</v>
+        <v>10142.1702275104</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3701,7 +6397,7 @@
         <v>43938</v>
       </c>
       <c r="B35" s="6" t="n">
-        <v>10539.5132938237</v>
+        <v>10501.2705030487</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3712,7 +6408,7 @@
         <v>43939</v>
       </c>
       <c r="B36" s="6" t="n">
-        <v>10900.7001301636</v>
+        <v>10866.9012229194</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3723,7 +6419,7 @@
         <v>43940</v>
       </c>
       <c r="B37" s="6" t="n">
-        <v>11268.4495764844</v>
+        <v>11239.173008057</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3734,7 +6430,7 @@
         <v>43941</v>
       </c>
       <c r="B38" s="6" t="n">
-        <v>11642.8719150758</v>
+        <v>11618.1976091129</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3745,7 +6441,7 @@
         <v>43942</v>
       </c>
       <c r="B39" s="6" t="n">
-        <v>12024.0786091167</v>
+        <v>12004.0879343499</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3756,7 +6452,7 @@
         <v>43943</v>
       </c>
       <c r="B40" s="6" t="n">
-        <v>12412.1823237892</v>
+        <v>12396.9580736653</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3767,7 +6463,7 @@
         <v>43944</v>
       </c>
       <c r="B41" s="6" t="n">
-        <v>12807.2969442233</v>
+        <v>12796.9233190444</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3778,7 +6474,7 @@
         <v>43945</v>
       </c>
       <c r="B42" s="6" t="n">
-        <v>13209.5375904959</v>
+        <v>13204.100181707</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3789,7 +6485,7 @@
         <v>43946</v>
       </c>
       <c r="B43" s="6" t="n">
-        <v>13619.0206298778</v>
+        <v>13618.6064061764</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3800,7 +6496,7 @@
         <v>43947</v>
       </c>
       <c r="B44" s="6" t="n">
-        <v>14035.8636864982</v>
+        <v>14040.5609814734</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3811,7 +6507,7 @@
         <v>43948</v>
       </c>
       <c r="B45" s="6" t="n">
-        <v>14460.1856485707</v>
+        <v>14470.0841496057</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3822,7 +6518,7 @@
         <v>43949</v>
       </c>
       <c r="B46" s="6" t="n">
-        <v>14892.106673304</v>
+        <v>14907.297411503</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3833,7 +6529,7 @@
         <v>43950</v>
       </c>
       <c r="B47" s="6" t="n">
-        <v>15331.7481896027</v>
+        <v>15352.3235305244</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3844,7 +6540,7 @@
         <v>43951</v>
       </c>
       <c r="B48" s="6" t="n">
-        <v>15779.232898645</v>
+        <v>15805.2865336452</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3855,9 +6551,680 @@
         <v>43952</v>
       </c>
       <c r="B49" s="6" t="n">
-        <v>16234.6847724101</v>
+        <v>16266.3117104131</v>
       </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>16735.5256097488</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>17213.0560346502</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>17699.0320348485</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>18193.5838974533</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>18696.8431356119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>19208.9424752018</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>19730.0158395651</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>20260.198332287</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>20799.6262180153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>21348.4369013103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>21906.7689035105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>22474.7618375956</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>23052.5563810222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>23640.2942465069</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>24238.1181507249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>24846.1717808945</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>25464.5997592092</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>26093.5476050837</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>26733.1616951726</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>27383.5892211237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>28044.9781450239</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>28717.4771524961</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>29401.2356034052</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>30096.4034801286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>30803.1313333509</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>31521.5702253376</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>32251.871670647</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>32994.1875742371</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>33748.6701669282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>34515.4719381785</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>35294.7455661368</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>36133.8679248395</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B82" s="6" t="n">
+        <v>37037.351298305</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>43986</v>
+      </c>
+      <c r="B83" s="6" t="n">
+        <v>38013.9937239984</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>43987</v>
+      </c>
+      <c r="B84" s="6" t="n">
+        <v>39076.0188608681</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>43988</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>40238.9492840952</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>43989</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>41521.9487392363</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>43990</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>42948.5199842541</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43991</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>44457.5460340522</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>43992</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>46067.0607142792</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>47788.870523155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>43994</v>
+      </c>
+      <c r="B91" s="6" t="n">
+        <v>49632.55129669</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>43995</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>51607.0737976384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>43996</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>53721.4719602106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>43997</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>55985.1242120808</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>58407.8779784124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B96" s="6" t="n">
+        <v>61000.11007037</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B97" s="6" t="n">
+        <v>63772.7601496722</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B98" s="6" t="n">
+        <v>66737.3520067521</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B99" s="6" t="n">
+        <v>69906.0082815866</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>73291.4605351882</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>76907.0550327559</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>80766.7539291364</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B103" s="6" t="n">
+        <v>84885.1312300501</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>89277.362727863</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>93959.2089946031</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>98946.9904249953</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>104257.553247289</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>109908.225357298</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>115916.760783133</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>122301.271558445</v>
+      </c>
+      <c r="C110" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4622,37 +7989,37 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
@@ -4662,27 +8029,27 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -4837,27 +8204,27 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198">
@@ -4867,272 +8234,272 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253">
@@ -5142,17 +8509,17 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257">
@@ -5162,32 +8529,32 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264">
@@ -5197,22 +8564,22 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>231</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -5257,76 +8624,96 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
         <v>5</v>
       </c>
     </row>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:12:36"</t>
+    <t xml:space="preserve">[1] "2020-05-07 13:55:23"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-07 13:55:23"</t>
+    <t xml:space="preserve">[1] "2020-05-08 11:21:46"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-08 11:21:46"</t>
+    <t xml:space="preserve">[1] "2020-05-14 09:14:54"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9004" </t>
+    <t xml:space="preserve">"0.3.0.9005" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-14 09:14:54"</t>
+    <t xml:space="preserve">[1] "2020-05-16 17:06:23"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">     version </t>
   </si>
   <si>
-    <t xml:space="preserve">"0.3.0.9005" </t>
+    <t xml:space="preserve">"0.3.0.9006" </t>
   </si>
   <si>
     <t xml:space="preserve">$hosp.bounds</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-16 17:06:23"</t>
+    <t xml:space="preserve">[1] "2020-05-18 12:23:07"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>

--- a/vignettes/Alameda-May4-v5 output.xlsx
+++ b/vignettes/Alameda-May4-v5 output.xlsx
@@ -473,7 +473,7 @@
     <t xml:space="preserve">$extras$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-05-18 12:23:07"</t>
+    <t xml:space="preserve">[1] "2020-06-17 14:39:02"</t>
   </si>
   <si>
     <t xml:space="preserve">$extras$LEMMA.version</t>
